--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-data-clean.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-data-clean.xlsx
@@ -21,7 +21,7 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-13</t>
   </si>
   <si>
     <t>hzero</t>
